--- a/AUI2.0.xlsx
+++ b/AUI2.0.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1.控件地图" sheetId="1" r:id="rId1"/>
     <sheet name="2.重点控件_逻辑Topo" sheetId="2" r:id="rId2"/>
+    <sheet name="2.重点控件_GIS" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.控件地图'!$A$1:$I$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2.重点控件_GIS'!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2.重点控件_逻辑Topo'!$A$1:$M$61</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="183">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -674,6 +676,82 @@
   </si>
   <si>
     <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaflet.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openlayers.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光纤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光缆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边线、填充、透明度、气泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label、颜色、气泡、选中状态、合并展开、透明度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label、颜色、气泡、选中状态、透明度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标、颜色、气泡、选中状态、标识、透明度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义区块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图源定制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图风格定制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义地图源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -855,13 +933,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,7 +948,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,24 +1263,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7265625" style="2"/>
-    <col min="10" max="11" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.90625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.77734375" style="2"/>
+    <col min="10" max="11" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1270,7 +1351,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A56" si="0">ROW()-1</f>
         <v>2</v>
@@ -1303,7 +1384,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1336,7 +1417,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1371,12 +1452,12 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1404,12 +1485,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1" t="s">
         <v>111</v>
       </c>
@@ -1435,12 +1516,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1468,12 +1549,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
@@ -1499,12 +1580,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>85</v>
       </c>
@@ -1530,12 +1611,12 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>86</v>
       </c>
@@ -1561,12 +1642,12 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1594,12 +1675,12 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
@@ -1625,13 +1706,13 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1656,13 +1737,13 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
@@ -1685,13 +1766,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1714,13 +1795,13 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1743,13 +1824,13 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1772,13 +1853,13 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1801,13 +1882,13 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1830,13 +1911,13 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1861,13 +1942,13 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1890,13 +1971,13 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1919,13 +2000,13 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
@@ -1948,13 +2029,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="5" t="s">
         <v>32</v>
       </c>
@@ -1977,13 +2058,13 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
@@ -2006,13 +2087,13 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
@@ -2035,13 +2116,13 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2066,13 +2147,13 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
@@ -2095,13 +2176,13 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="5" t="s">
         <v>39</v>
       </c>
@@ -2129,8 +2210,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="5" t="s">
         <v>40</v>
       </c>
@@ -2158,8 +2239,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2189,8 +2270,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="5" t="s">
         <v>42</v>
       </c>
@@ -2218,8 +2299,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2251,8 +2332,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="5" t="s">
         <v>44</v>
       </c>
@@ -2282,8 +2363,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="5" t="s">
         <v>45</v>
       </c>
@@ -2311,7 +2392,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2342,7 +2423,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="1" t="s">
         <v>95</v>
       </c>
@@ -2373,7 +2454,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="1" t="s">
         <v>96</v>
       </c>
@@ -2406,10 +2487,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2439,8 +2520,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="5" t="s">
         <v>51</v>
       </c>
@@ -2468,8 +2549,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -2499,8 +2580,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="5" t="s">
         <v>53</v>
       </c>
@@ -2530,8 +2611,8 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2563,8 +2644,8 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="5" t="s">
         <v>55</v>
       </c>
@@ -2594,8 +2675,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="5" t="s">
         <v>56</v>
       </c>
@@ -2625,7 +2706,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2658,7 +2739,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="1" t="s">
         <v>100</v>
       </c>
@@ -2691,7 +2772,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="1" t="s">
         <v>101</v>
       </c>
@@ -2724,7 +2805,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2754,7 +2835,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="1" t="s">
         <v>103</v>
       </c>
@@ -2785,7 +2866,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="1" t="s">
         <v>104</v>
       </c>
@@ -2816,7 +2897,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="1" t="s">
         <v>105</v>
       </c>
@@ -2847,7 +2928,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="1" t="s">
         <v>106</v>
       </c>
@@ -2878,7 +2959,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2909,7 +2990,7 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="16"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
@@ -2938,6 +3019,13 @@
   </sheetData>
   <autoFilter ref="A1:I56"/>
   <mergeCells count="14">
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C14:C20"/>
     <mergeCell ref="C21:C27"/>
@@ -2945,13 +3033,6 @@
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B40:B46"/>
     <mergeCell ref="B12:B39"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2968,22 +3049,22 @@
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7265625" style="2"/>
-    <col min="12" max="12" width="10.6328125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.77734375" style="2"/>
+    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3081,7 +3162,7 @@
         <f t="shared" ref="A4:A61" si="1">ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3107,7 +3188,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>133</v>
       </c>
@@ -3131,7 +3212,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1" t="s">
         <v>134</v>
       </c>
@@ -3155,7 +3236,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>144</v>
       </c>
@@ -3179,7 +3260,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="9"/>
@@ -3197,7 +3278,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3223,7 +3304,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>143</v>
       </c>
@@ -3247,7 +3328,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>120</v>
       </c>
@@ -3271,7 +3352,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>121</v>
       </c>
@@ -3295,7 +3376,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>139</v>
       </c>
@@ -3319,7 +3400,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>126</v>
       </c>
@@ -3343,7 +3424,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>127</v>
       </c>
@@ -3367,7 +3448,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>140</v>
       </c>
@@ -3391,7 +3472,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>129</v>
       </c>
@@ -3412,7 +3493,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="9" t="s">
         <v>162</v>
       </c>
@@ -3436,7 +3517,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>134</v>
       </c>
@@ -3460,7 +3541,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
         <v>138</v>
       </c>
@@ -3484,7 +3565,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>137</v>
       </c>
@@ -3508,7 +3589,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="9"/>
@@ -3526,7 +3607,7 @@
         <f>ROW()-1</f>
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="12" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3552,7 +3633,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
         <v>142</v>
       </c>
@@ -3576,7 +3657,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>120</v>
       </c>
@@ -3600,7 +3681,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>121</v>
       </c>
@@ -3624,7 +3705,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>139</v>
       </c>
@@ -3648,7 +3729,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
         <v>126</v>
       </c>
@@ -3672,7 +3753,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
         <v>127</v>
       </c>
@@ -3696,7 +3777,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
         <v>140</v>
       </c>
@@ -3720,7 +3801,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>128</v>
       </c>
@@ -3741,7 +3822,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="17"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="9" t="s">
         <v>162</v>
       </c>
@@ -3765,7 +3846,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="9" t="s">
         <v>134</v>
       </c>
@@ -3789,7 +3870,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="9" t="s">
         <v>135</v>
       </c>
@@ -3813,7 +3894,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="9" t="s">
         <v>136</v>
       </c>
@@ -3837,7 +3918,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="9"/>
@@ -3855,7 +3936,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3881,7 +3962,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" s="17"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
         <v>123</v>
       </c>
@@ -3905,7 +3986,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
         <v>124</v>
       </c>
@@ -3929,7 +4010,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
         <v>146</v>
       </c>
@@ -3953,7 +4034,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="17"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
         <v>120</v>
       </c>
@@ -3977,7 +4058,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="1" t="s">
         <v>141</v>
       </c>
@@ -4001,7 +4082,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>121</v>
       </c>
@@ -4025,7 +4106,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
         <v>139</v>
       </c>
@@ -4049,7 +4130,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="1" t="s">
         <v>126</v>
       </c>
@@ -4073,7 +4154,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="17"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>127</v>
       </c>
@@ -4097,7 +4178,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="17"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="1" t="s">
         <v>140</v>
       </c>
@@ -4121,7 +4202,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="17"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="1" t="s">
         <v>129</v>
       </c>
@@ -4145,7 +4226,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="1" t="s">
         <v>134</v>
       </c>
@@ -4169,7 +4250,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="1" t="s">
         <v>136</v>
       </c>
@@ -4193,7 +4274,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="17"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="9"/>
@@ -4211,7 +4292,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -4237,7 +4318,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="4" t="s">
         <v>143</v>
       </c>
@@ -4261,7 +4342,7 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="18"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="4" t="s">
         <v>120</v>
       </c>
@@ -4285,7 +4366,7 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="18"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="4" t="s">
         <v>121</v>
       </c>
@@ -4309,7 +4390,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="18"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="4" t="s">
         <v>126</v>
       </c>
@@ -4333,7 +4414,7 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4" t="s">
         <v>127</v>
       </c>
@@ -4357,7 +4438,7 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4" t="s">
         <v>140</v>
       </c>
@@ -4381,7 +4462,7 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="4" t="s">
         <v>129</v>
       </c>
@@ -4405,7 +4486,7 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4" t="s">
         <v>134</v>
       </c>
@@ -4429,7 +4510,7 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="10"/>
@@ -4466,4 +4547,233 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <f t="shared" ref="A3:A10" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B2:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AUI2.0.xlsx
+++ b/AUI2.0.xlsx
@@ -8,20 +8,25 @@
   </bookViews>
   <sheets>
     <sheet name="1.控件地图" sheetId="1" r:id="rId1"/>
-    <sheet name="2.重点控件_逻辑Topo" sheetId="2" r:id="rId2"/>
-    <sheet name="2.重点控件_GIS" sheetId="3" r:id="rId3"/>
+    <sheet name="2.重点控件_逻辑Topo_业务引擎" sheetId="6" r:id="rId2"/>
+    <sheet name="2.重点控件_逻辑Topo_绘图引擎" sheetId="2" r:id="rId3"/>
+    <sheet name="2.重点控件_逻辑Topo_2D引擎" sheetId="5" r:id="rId4"/>
+    <sheet name="2.重点控件_GIS" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.控件地图'!$A$1:$I$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2.重点控件_GIS'!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2.重点控件_逻辑Topo'!$A$1:$M$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.重点控件_GIS'!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.重点控件_逻辑Topo_2D引擎'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2.重点控件_逻辑Topo_绘图引擎'!$A$1:$J$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2.重点控件_逻辑Topo_业务引擎'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="302">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -499,10 +504,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>半透明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -511,10 +512,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>多线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -523,23 +520,698 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Hover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放变点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键折叠/展开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附属图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FABRIC.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>konva.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaflet.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openlayers.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光纤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光缆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边线、填充、透明度、气泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label、颜色、气泡、选中状态、合并展开、透明度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label、颜色、气泡、选中状态、透明度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标、颜色、气泡、选中状态、标识、透明度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义区块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图源定制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图风格定制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义地图源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regimg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slidewnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击：链路展开折叠，节点展开折叠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拽：画布，网元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击：网元，链路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网元：图标，附属图标，透明度，label,选中效果，隐藏，气泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topoEngine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局和局部最佳视图，编辑框，创建链路，创建网元，链路和网元一键折叠、展开，伪3D分层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>框选：框选网元和链路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链路：选中效果，颜色，虚实，宽度，附属图标，流动，方向，透明度，隐藏，气泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarvelTopo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectNode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectLink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupLink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fake3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Group</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hover</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hover</t>
+    <t>4级规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label/图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单线(多Label/虚实/方向/多颜色)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件入口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件回调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册图标资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得可视区域数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得数据全集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得选中的Node和Link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得选中的Node和Link的坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得滑动窗口数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中Node且居中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中Node不居中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中Link且居中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中Link不居中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Node的坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断Topo是否为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得Pos或Size有变化的Node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置坐标变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置Size变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select组合对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去选中所有对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupGroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠/展开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topo容器变化自适应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建伪3D图层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除伪3D图层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置Topo鼠标样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建/删除尾巴线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入/拖拽/退出背景图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手绘业务路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网最佳视图/选中最佳视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得画布位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复上次画布位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置上次打开缩放比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得缩放比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊场景下重置2D引擎的监听事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得Pos有变化的Node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形_进入绘制模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形_绘制结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形_编辑文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_Zoom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_NodeClick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_NodeCtrlClick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_LinkDown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_LinkCtrlDown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_BgDown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_框选开始/结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_NodeMove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_NodeCtrlMove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_MouseMove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_BgDrag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_LinkDbClick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件监听_LinkClick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senario层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetData、Redraw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高性能2D引擎封装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可拖出范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线和圆的交点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点是否可移出伪3D图层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点是否在多边形内部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端数据缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50W设备展示：如果缩放到一定比例，子网收缩成点，则可支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50W设备展示：限制缩放比，保证一屏最多绘制1W网元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中Topo对象，居中定位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>框选时，选中指定的对象，可能是Node，可能是Link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送网络的客户数据有明确的网络层级，在不同缩放比下展示不同网络层级的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出Canvas图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择必经，必不经设备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义网元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义链路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树装布局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLT到级联分光器到ONU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择必经必不经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)类似传统网管的子网绘制：跳转了新的页面，天然支持
+(3)自定义布局设计器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多条业务路径同时展示，选中的高亮
+自定义网元
+自定义链路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级规格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -547,211 +1219,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1级规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Layer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放变点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键折叠/展开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键折叠/展开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放变点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Theme</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>框选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附属图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附属图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最佳视图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附属图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单线(多Label/虚实/方向/多颜色)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点(Label/图标)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FABRIC.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>konva.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group(Label/图标)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>站点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaflet.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>openlayers.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光纤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光缆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>边线、填充、透明度、气泡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label、颜色、气泡、选中状态、合并展开、透明度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label、颜色、气泡、选中状态、透明度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标、颜色、气泡、选中状态、标识、透明度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义区块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>风格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图源定制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图风格定制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义地图源</t>
+    <t>3级规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrender.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多条业务路径同时展示，选中的高亮
+自定义网元
+自定义链路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)绘制保护路径
+(2)绘制手拉手Topo
+(3)绘制树装布局
+自定义网元
+自定义链路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)类似传统网管的子网绘制：跳转了新的页面，天然支持
+(2)传送绘制子网、站点嵌套：Group可以是站点，也可以是子网，但由调用者提供折叠展开状态下合理的坐标
+(3)自定义布局设计器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +1251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,15 +1295,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +1318,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -924,19 +1421,46 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,16 +1472,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1263,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1318,7 +1845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1351,7 +1878,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A56" si="0">ROW()-1</f>
         <v>2</v>
@@ -1384,7 +1911,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1417,7 +1944,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1452,12 +1979,12 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1485,12 +2012,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="1" t="s">
         <v>111</v>
       </c>
@@ -1516,12 +2043,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1549,12 +2076,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
@@ -1580,12 +2107,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="1" t="s">
         <v>85</v>
       </c>
@@ -1611,12 +2138,12 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>86</v>
       </c>
@@ -1642,12 +2169,12 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1675,12 +2202,12 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
@@ -1706,13 +2233,13 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1737,13 +2264,13 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
@@ -1766,13 +2293,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1795,13 +2322,13 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1824,13 +2351,13 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1853,13 +2380,13 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1882,13 +2409,13 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1911,13 +2438,13 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1942,13 +2469,13 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1971,13 +2498,13 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
@@ -2000,13 +2527,13 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
@@ -2029,13 +2556,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="5" t="s">
         <v>32</v>
       </c>
@@ -2058,13 +2585,13 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
@@ -2087,13 +2614,13 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
@@ -2116,13 +2643,13 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2147,13 +2674,13 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
@@ -2176,13 +2703,13 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="14.55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="5" t="s">
         <v>39</v>
       </c>
@@ -2210,8 +2737,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="5" t="s">
         <v>40</v>
       </c>
@@ -2239,8 +2766,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2270,8 +2797,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="5" t="s">
         <v>42</v>
       </c>
@@ -2299,8 +2826,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="22" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2332,8 +2859,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="5" t="s">
         <v>44</v>
       </c>
@@ -2363,8 +2890,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="5" t="s">
         <v>45</v>
       </c>
@@ -2392,7 +2919,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2423,7 +2950,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="1" t="s">
         <v>95</v>
       </c>
@@ -2454,7 +2981,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="1" t="s">
         <v>96</v>
       </c>
@@ -2487,10 +3014,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="22" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2520,8 +3047,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="5" t="s">
         <v>51</v>
       </c>
@@ -2549,8 +3076,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -2580,8 +3107,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="5" t="s">
         <v>53</v>
       </c>
@@ -2611,8 +3138,8 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2644,8 +3171,8 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="5" t="s">
         <v>55</v>
       </c>
@@ -2675,8 +3202,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="5" t="s">
         <v>56</v>
       </c>
@@ -2706,7 +3233,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2739,7 +3266,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="1" t="s">
         <v>100</v>
       </c>
@@ -2772,7 +3299,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="1" t="s">
         <v>101</v>
       </c>
@@ -2805,7 +3332,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2835,7 +3362,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="14"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="1" t="s">
         <v>103</v>
       </c>
@@ -2866,7 +3393,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="1" t="s">
         <v>104</v>
       </c>
@@ -2897,7 +3424,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="1" t="s">
         <v>105</v>
       </c>
@@ -2928,7 +3455,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="14"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="1" t="s">
         <v>106</v>
       </c>
@@ -2959,7 +3486,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="14"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
@@ -2990,7 +3517,7 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
@@ -3019,6 +3546,13 @@
   </sheetData>
   <autoFilter ref="A1:I56"/>
   <mergeCells count="14">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B12:B39"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B50:B56"/>
     <mergeCell ref="C28:C31"/>
@@ -3026,13 +3560,6 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="B12:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3042,1507 +3569,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.77734375" style="2"/>
-    <col min="12" max="12" width="10.6640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.77734375" style="2"/>
+    <col min="16" max="16" width="10.6640625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f t="shared" ref="A2:A3" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A61" si="1">ROW()-1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="9">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="9">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f>ROW()-1</f>
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="9">
-        <v>9</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="9">
-        <v>10</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="9">
-        <v>10</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="9">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="9">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9">
-        <v>10</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>1</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
-        <v>10</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
-        <v>10</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1">
-        <v>10</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1">
-        <v>10</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="9">
-        <v>1</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1">
-        <v>10</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1">
-        <v>10</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M61">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="POK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="5">
-    <mergeCell ref="B9:B22"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="B23:B36"/>
-    <mergeCell ref="B37:B51"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4551,10 +3680,1733 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <f t="shared" ref="A2:A87" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+    </row>
+    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+    </row>
+    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+    </row>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+    </row>
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+    </row>
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="B5:B80"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C72:C74"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.77734375" style="2"/>
+    <col min="14" max="14" width="10.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4575,197 +5427,197 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <f t="shared" ref="A3:A10" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="B9" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4776,4 +5628,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="12"/>
+    <col min="3" max="3" width="13.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AUI2.0.xlsx
+++ b/AUI2.0.xlsx
@@ -10,15 +10,13 @@
     <sheet name="1.控件地图" sheetId="1" r:id="rId1"/>
     <sheet name="2.重点控件_逻辑Topo_业务引擎" sheetId="6" r:id="rId2"/>
     <sheet name="2.重点控件_逻辑Topo_绘图引擎" sheetId="2" r:id="rId3"/>
-    <sheet name="2.重点控件_逻辑Topo_2D引擎" sheetId="5" r:id="rId4"/>
-    <sheet name="2.重点控件_GIS" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="2.重点控件_GIS" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.控件地图'!$A$1:$I$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.重点控件_GIS'!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.重点控件_逻辑Topo_2D引擎'!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2.重点控件_逻辑Topo_绘图引擎'!$A$1:$J$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.重点控件_GIS'!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2.重点控件_逻辑Topo_绘图引擎'!$A$1:$J$148</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2.重点控件_逻辑Topo_业务引擎'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="341">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -856,14 +854,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Geo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -988,14 +978,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>创建伪3D图层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除伪3D图层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>设置Topo鼠标样式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1124,10 +1106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高性能2D引擎封装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不可拖出范围</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1137,14 +1115,6 @@
   </si>
   <si>
     <t>点是否可移出伪3D图层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点是否在多边形内部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端数据缓存</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1208,22 +1178,6 @@
     <t>多条业务路径同时展示，选中的高亮
 自定义网元
 自定义链路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zrender.js</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1244,6 +1198,194 @@
     <t>(1)类似传统网管的子网绘制：跳转了新的页面，天然支持
 (2)传送绘制子网、站点嵌套：Group可以是站点，也可以是子网，但由调用者提供折叠展开状态下合理的坐标
 (3)自定义布局设计器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建伪3D图层_间接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除伪3D图层_间接</t>
+  </si>
+  <si>
+    <t>创建伪3D图层_直接</t>
+  </si>
+  <si>
+    <t>删除伪3D图层_直接</t>
+  </si>
+  <si>
+    <t>删除伪3D图层_直接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得slideWndZ=1时，滑动窗口的W和H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当鼠标拖动时，根据当前缩放比，更新滑动窗口的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方调用者更新滑动窗口的XMin/YMin，例如选中网元、链路时需要居中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前容器的变化，来更新滑动窗口的slideWndW/slideWndH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击最佳视图时，更新滑动窗口的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据oLastConfig，恢复上次的滑动窗口的位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取气泡的宽度和高度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制tip的边框以及起始点坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在tips的边框内，绘制tip内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待简化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被选中的动作识别</t>
+  </si>
+  <si>
+    <t>绘制节点</t>
+  </si>
+  <si>
+    <t>绘制气泡</t>
+  </si>
+  <si>
+    <t>绘制框选背景框</t>
+  </si>
+  <si>
+    <t>绘制编辑框</t>
+  </si>
+  <si>
+    <t>绘制链路</t>
+  </si>
+  <si>
+    <t>绘制尾巴线_创建链路</t>
+  </si>
+  <si>
+    <t>绘制尾巴线_调整路径</t>
+  </si>
+  <si>
+    <t>2D_引擎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>init(含事件监听)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一坨基础API的封装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DItem_滑动窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DItem_气泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DItem_事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DItem_伪3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DItem_抽象点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2DItem_抽象线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得全部数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得局部数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得局部可视数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_滑动窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_Group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待移出Set接口到业务侧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_Merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+  </si>
+  <si>
+    <t>挂起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1398,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1454,6 +1596,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1484,14 +1635,382 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1984,7 +2503,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2017,7 +2536,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="1" t="s">
         <v>111</v>
       </c>
@@ -2048,7 +2567,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2081,7 +2600,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
@@ -2112,7 +2631,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1" t="s">
         <v>85</v>
       </c>
@@ -2143,7 +2662,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="1" t="s">
         <v>86</v>
       </c>
@@ -2174,7 +2693,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2207,7 +2726,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
@@ -2238,8 +2757,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2269,8 +2788,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
@@ -2298,8 +2817,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
@@ -2327,8 +2846,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
@@ -2356,8 +2875,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="5" t="s">
         <v>23</v>
       </c>
@@ -2385,8 +2904,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
@@ -2414,8 +2933,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2443,8 +2962,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="25" t="s">
         <v>90</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2474,8 +2993,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2503,8 +3022,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
@@ -2532,8 +3051,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
@@ -2561,8 +3080,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="5" t="s">
         <v>32</v>
       </c>
@@ -2590,8 +3109,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
@@ -2619,8 +3138,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
@@ -2648,8 +3167,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="25" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2679,8 +3198,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
@@ -2708,8 +3227,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="5" t="s">
         <v>39</v>
       </c>
@@ -2737,8 +3256,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="5" t="s">
         <v>40</v>
       </c>
@@ -2766,8 +3285,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="25" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2797,8 +3316,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="5" t="s">
         <v>42</v>
       </c>
@@ -2826,8 +3345,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2859,8 +3378,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="5" t="s">
         <v>44</v>
       </c>
@@ -2890,8 +3409,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="5" t="s">
         <v>45</v>
       </c>
@@ -2919,7 +3438,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2950,7 +3469,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="1" t="s">
         <v>95</v>
       </c>
@@ -2981,7 +3500,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="1" t="s">
         <v>96</v>
       </c>
@@ -3014,10 +3533,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -3047,8 +3566,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="5" t="s">
         <v>51</v>
       </c>
@@ -3076,8 +3595,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="22" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -3107,8 +3626,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="5" t="s">
         <v>53</v>
       </c>
@@ -3138,8 +3657,8 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="25" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -3171,8 +3690,8 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="5" t="s">
         <v>55</v>
       </c>
@@ -3202,8 +3721,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="5" t="s">
         <v>56</v>
       </c>
@@ -3233,7 +3752,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3266,7 +3785,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="1" t="s">
         <v>100</v>
       </c>
@@ -3299,7 +3818,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="1" t="s">
         <v>101</v>
       </c>
@@ -3332,7 +3851,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="25" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3362,7 +3881,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="1" t="s">
         <v>103</v>
       </c>
@@ -3393,7 +3912,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="1" t="s">
         <v>104</v>
       </c>
@@ -3424,7 +3943,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="1" t="s">
         <v>105</v>
       </c>
@@ -3455,7 +3974,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3486,7 +4005,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
@@ -3517,7 +4036,7 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
@@ -3606,7 +4125,7 @@
         <v>191</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>73</v>
@@ -3650,25 +4169,25 @@
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3680,11 +4199,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3692,7 +4211,7 @@
     <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -3713,7 +4232,7 @@
         <v>191</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>73</v>
@@ -3736,7 +4255,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <f t="shared" ref="A2:A87" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A129" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -3749,7 +4268,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -3757,26 +4276,26 @@
       <c r="G2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>193</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -3784,24 +4303,24 @@
       <c r="G3" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -3809,1494 +4328,2848 @@
       <c r="G4" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>271</v>
+      <c r="B5" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="H5" s="10" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
         <v>194</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="G6" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="G7" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="G8" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="G9" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="G10" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="G11" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="G12" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="G13" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="G14" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="G15" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="G16" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="G18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="G19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="10" t="s">
         <v>120</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="G20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="G21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="G22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="G23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="G24" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="G25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="G26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="25" t="s">
         <v>195</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+      <c r="G27" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
+      <c r="G28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="G29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="10" t="s">
         <v>120</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="G30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="G31" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="G32" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-    </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="G34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="G35" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="G36" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="25" t="s">
         <v>196</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="G37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="G38" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
+      <c r="G39" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
+      <c r="G40" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="G41" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="G42" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="10" t="s">
         <v>120</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="G43" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="G44" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="G45" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
+      <c r="G46" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-    </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="G47" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
+      <c r="G48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="25" t="s">
         <v>197</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="H49" s="10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
+      <c r="G50" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="25" t="s">
         <v>198</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="G51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
+      <c r="G52" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
         <v>203</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
+      <c r="G53" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="22" t="s">
-        <v>235</v>
+      <c r="B54" s="26"/>
+      <c r="C54" s="25" t="s">
+        <v>233</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-    </row>
-    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
+      <c r="G54" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="G55" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-    </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="G56" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
+      <c r="G57" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="22" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="25" t="s">
         <v>199</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
+      <c r="G58" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="21">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
+      <c r="G59" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="21">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="22" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="25" t="s">
         <v>200</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
+      <c r="G60" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
+      <c r="G61" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="21">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="22" t="s">
-        <v>237</v>
+      <c r="B62" s="26"/>
+      <c r="C62" s="25" t="s">
+        <v>235</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
+      <c r="G62" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="21">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
+      <c r="G63" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="21">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="22" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="25" t="s">
         <v>201</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
+      <c r="G64" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="21">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
+      <c r="G65" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="21">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="22" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="25" t="s">
         <v>202</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
+      <c r="G66" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="21">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="10" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
+      <c r="G67" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
     </row>
     <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="A68" s="21">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="26"/>
+      <c r="C68" s="28" t="s">
         <v>204</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="G68" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="H68" s="10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
     </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
+      <c r="G69" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+      <c r="A70" s="21">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
+      <c r="G70" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+      <c r="A71" s="21">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
+      <c r="G71" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="A72" s="21">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="22" t="s">
-        <v>253</v>
+      <c r="B72" s="26"/>
+      <c r="C72" s="25" t="s">
+        <v>249</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
+      <c r="G72" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="A73" s="21">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
+      <c r="G73" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="A74" s="21">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
+      <c r="G74" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="A75" s="21">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="22" t="s">
-        <v>232</v>
+      <c r="B75" s="26"/>
+      <c r="C75" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
+      <c r="G75" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
     </row>
     <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="A76" s="21">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="G76" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="H76" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="A77" s="21">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
+      <c r="G77" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="A78" s="21">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-    </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+      <c r="G78" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-    </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+      <c r="G79" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="21">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
+      <c r="G80" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="A81" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
+      <c r="D81" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="A82" s="21">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="21">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="22" t="s">
-        <v>209</v>
-      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="27"/>
       <c r="D83" s="10" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
+      <c r="G83" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="A84" s="21">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-    </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="B84" s="28"/>
+      <c r="C84" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-    </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
+      <c r="B85" s="28"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="21">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="A87" s="21">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="21">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="21">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="21">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="21">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+    </row>
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="21">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="21">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="21">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="21">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="28"/>
+      <c r="C103" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="21">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="28"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="21">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="21">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="21">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="21">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="21">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="21">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="21">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="21">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="21">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="21">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="21">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="21">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="21">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="21">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="21">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="21">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="21">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="21">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="21">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="28"/>
+      <c r="C125" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="21">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="28"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="21">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="28"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="21">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="28"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="21">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="28"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="21">
+        <f t="shared" ref="A130:A148" si="1">ROW()-1</f>
+        <v>129</v>
+      </c>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="21">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="21">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="21">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="21">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="21">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="28"/>
+      <c r="C135" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="21">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="28"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="21">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="28"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="21">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="28"/>
+      <c r="C138" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="21">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="28"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="21">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="28"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="21">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="28"/>
+      <c r="C141" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="21">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="28"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="21">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="28"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="21">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="28"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="21">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="28"/>
+      <c r="C145" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="21">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="28"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="21">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="28"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="21">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="28"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B81:B87"/>
+  <autoFilter ref="A1:J148"/>
+  <mergeCells count="32">
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C103:C104"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C51:C52"/>
@@ -5310,98 +7183,177 @@
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C83:C86"/>
     <mergeCell ref="C68:C71"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C54:C57"/>
     <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B81:B148"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="C88:C97"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C130:C134"/>
+    <mergeCell ref="C135:C137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G84 G86:G87 G90:G110 G113:G117 G120:G124 G127:G129 G132:G134 G137">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G140">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G143">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G147">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G148">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111:G112">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118:G119">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125:G126">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130:G131">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135:G136">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G138:G139">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G141:G142">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G145:G146">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G148">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"挂起"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"POK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.77734375" style="2"/>
-    <col min="14" max="14" width="10.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -5453,7 +7405,7 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>133</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -5474,7 +7426,7 @@
         <f t="shared" ref="A3:A10" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
         <v>137</v>
       </c>
@@ -5493,7 +7445,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="8" t="s">
         <v>139</v>
       </c>
@@ -5512,7 +7464,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="8" t="s">
         <v>140</v>
       </c>
@@ -5531,7 +7483,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="8" t="s">
         <v>141</v>
       </c>
@@ -5550,7 +7502,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="8" t="s">
         <v>146</v>
       </c>
@@ -5588,7 +7540,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>150</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -5607,7 +7559,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="8" t="s">
         <v>151</v>
       </c>
@@ -5630,7 +7582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -5686,7 +7638,7 @@
       <c r="A3" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -5700,7 +7652,7 @@
       <c r="A4" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="11" t="s">
         <v>161</v>
       </c>
@@ -5712,7 +7664,7 @@
       <c r="A5" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="11" t="s">
         <v>162</v>
       </c>
@@ -5724,7 +7676,7 @@
       <c r="A6" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="11" t="s">
         <v>163</v>
       </c>
@@ -5734,7 +7686,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="26"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="11" t="s">
         <v>164</v>
       </c>
@@ -5746,7 +7698,7 @@
       <c r="A8" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -5757,10 +7709,10 @@
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="11" t="s">
         <v>166</v>
       </c>
@@ -5769,8 +7721,8 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="11" t="s">
         <v>167</v>
       </c>
@@ -5780,7 +7732,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="11" t="s">
         <v>168</v>
       </c>
@@ -5789,10 +7741,10 @@
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="11" t="s">
         <v>169</v>
       </c>
@@ -5801,8 +7753,8 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="11" t="s">
         <v>171</v>
       </c>
@@ -5812,7 +7764,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="11" t="s">
         <v>170</v>
       </c>
@@ -5821,7 +7773,7 @@
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="12" t="s">
         <v>182</v>
       </c>
